--- a/outputs-r202/train-g__CAG-390.xlsx
+++ b/outputs-r202/train-g__CAG-390.xlsx
@@ -7,6 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
+    <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
+    <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -14,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="180">
   <si>
     <t>Row</t>
   </si>
@@ -146,6 +150,414 @@
   </si>
   <si>
     <t>actual</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437015.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753845.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753845.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309755.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321265.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321265.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321265.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321265.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902759865.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902759865.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902759865.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902759865.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437015.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437015.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437015.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437015.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437015.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437015.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753845.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753845.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753845.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321265.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321265.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321265.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902759865.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437015.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437015.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753845.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753845.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753845.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753845.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309755.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309755.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309755.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902759865.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437015.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437015.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900556805.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314565.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003523225.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753845.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753845.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309755.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309755.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321265.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902759865.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900753295.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783905.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803255.1_7.fasta</t>
   </si>
 </sst>
 </file>
@@ -166,7 +578,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -176,14 +588,30 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,4 +1758,4568 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="22.85546875" customWidth="true"/>
+    <col min="9" max="9" width="10.28515625" customWidth="true"/>
+    <col min="10" max="10" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33">
+        <v>0.12784473296593685</v>
+      </c>
+      <c r="C33">
+        <v>0.12784473296593685</v>
+      </c>
+      <c r="D33">
+        <v>0.12784473296593685</v>
+      </c>
+      <c r="E33">
+        <v>0.12784473296593674</v>
+      </c>
+      <c r="F33">
+        <v>0.12784473296593674</v>
+      </c>
+      <c r="G33">
+        <v>0.12784473296593674</v>
+      </c>
+      <c r="H33">
+        <v>0.23293160220437917</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="22.85546875" customWidth="true"/>
+    <col min="9" max="9" width="10.28515625" customWidth="true"/>
+    <col min="10" max="10" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8">
+        <v>0.12784473296593679</v>
+      </c>
+      <c r="C8">
+        <v>0.23293160220437908</v>
+      </c>
+      <c r="D8">
+        <v>0.12784473296593679</v>
+      </c>
+      <c r="E8">
+        <v>0.12784473296593679</v>
+      </c>
+      <c r="F8">
+        <v>0.12784473296593679</v>
+      </c>
+      <c r="G8">
+        <v>0.12784473296593679</v>
+      </c>
+      <c r="H8">
+        <v>0.12784473296593679</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35">
+        <v>0.12784473296593685</v>
+      </c>
+      <c r="C35">
+        <v>0.12784473296593685</v>
+      </c>
+      <c r="D35">
+        <v>0.12784473296593685</v>
+      </c>
+      <c r="E35">
+        <v>0.12784473296593674</v>
+      </c>
+      <c r="F35">
+        <v>0.12784473296593674</v>
+      </c>
+      <c r="G35">
+        <v>0.12784473296593674</v>
+      </c>
+      <c r="H35">
+        <v>0.23293160220437917</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="22.85546875" customWidth="true"/>
+    <col min="9" max="9" width="10.28515625" customWidth="true"/>
+    <col min="10" max="10" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3">
+        <v>0.94771614700662143</v>
+      </c>
+      <c r="C3">
+        <v>2.2199707276699944e-14</v>
+      </c>
+      <c r="D3">
+        <v>2.2199707276699944e-14</v>
+      </c>
+      <c r="E3">
+        <v>2.2199707276699944e-14</v>
+      </c>
+      <c r="F3">
+        <v>2.2199707276699944e-14</v>
+      </c>
+      <c r="G3">
+        <v>0.052283852993267634</v>
+      </c>
+      <c r="H3">
+        <v>2.2199707276699944e-14</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13">
+        <v>2.2199846524104549e-14</v>
+      </c>
+      <c r="C13">
+        <v>0.06698647655145501</v>
+      </c>
+      <c r="D13">
+        <v>0.93301352344843391</v>
+      </c>
+      <c r="E13">
+        <v>2.2199846524104549e-14</v>
+      </c>
+      <c r="F13">
+        <v>2.2199846524104549e-14</v>
+      </c>
+      <c r="G13">
+        <v>2.2199846524104549e-14</v>
+      </c>
+      <c r="H13">
+        <v>2.2199846524104549e-14</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15">
+        <v>2.2199681046935533e-14</v>
+      </c>
+      <c r="C15">
+        <v>2.2199681046935533e-14</v>
+      </c>
+      <c r="D15">
+        <v>0.94403000935196779</v>
+      </c>
+      <c r="E15">
+        <v>2.2199681046935533e-14</v>
+      </c>
+      <c r="F15">
+        <v>0.055969990647921269</v>
+      </c>
+      <c r="G15">
+        <v>2.2199681046935533e-14</v>
+      </c>
+      <c r="H15">
+        <v>2.2199681046935533e-14</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26">
+        <v>0.1287959798508051</v>
+      </c>
+      <c r="C26">
+        <v>0.1287959798508051</v>
+      </c>
+      <c r="D26">
+        <v>0.12879597985080513</v>
+      </c>
+      <c r="E26">
+        <v>0.12879597985080521</v>
+      </c>
+      <c r="F26">
+        <v>0.22722412089516941</v>
+      </c>
+      <c r="G26">
+        <v>0.12879597985080504</v>
+      </c>
+      <c r="H26">
+        <v>0.12879597985080504</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27">
+        <v>0.1287959798508051</v>
+      </c>
+      <c r="C27">
+        <v>0.1287959798508051</v>
+      </c>
+      <c r="D27">
+        <v>0.12879597985080513</v>
+      </c>
+      <c r="E27">
+        <v>0.12879597985080521</v>
+      </c>
+      <c r="F27">
+        <v>0.22722412089516941</v>
+      </c>
+      <c r="G27">
+        <v>0.12879597985080504</v>
+      </c>
+      <c r="H27">
+        <v>0.12879597985080504</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="22.85546875" customWidth="true"/>
+    <col min="9" max="9" width="10.28515625" customWidth="true"/>
+    <col min="10" max="10" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20">
+        <v>0.11823965700410191</v>
+      </c>
+      <c r="C20">
+        <v>0.11823965700410191</v>
+      </c>
+      <c r="D20">
+        <v>0.11823965700410191</v>
+      </c>
+      <c r="E20">
+        <v>0.29056205797538825</v>
+      </c>
+      <c r="F20">
+        <v>0.11823965700410194</v>
+      </c>
+      <c r="G20">
+        <v>0.11823965700410201</v>
+      </c>
+      <c r="H20">
+        <v>0.11823965700410194</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23">
+        <v>0.11823965700410191</v>
+      </c>
+      <c r="C23">
+        <v>0.11823965700410191</v>
+      </c>
+      <c r="D23">
+        <v>0.11823965700410191</v>
+      </c>
+      <c r="E23">
+        <v>0.29056205797538825</v>
+      </c>
+      <c r="F23">
+        <v>0.11823965700410194</v>
+      </c>
+      <c r="G23">
+        <v>0.11823965700410201</v>
+      </c>
+      <c r="H23">
+        <v>0.11823965700410194</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28">
+        <v>0.081688452135645628</v>
+      </c>
+      <c r="C28">
+        <v>2.2199991685089659e-14</v>
+      </c>
+      <c r="D28">
+        <v>2.2199991685089659e-14</v>
+      </c>
+      <c r="E28">
+        <v>2.2199991685089659e-14</v>
+      </c>
+      <c r="F28">
+        <v>2.2199991685089659e-14</v>
+      </c>
+      <c r="G28">
+        <v>0.9183115478642434</v>
+      </c>
+      <c r="H28">
+        <v>2.2199991685089659e-14</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>